--- a/asset/bed-register/bed-register.xlsx
+++ b/asset/bed-register/bed-register.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28016"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim.BH\Documents\GitHub\bhdirectory.github.io\asset\bed-register\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quarter2twelve/GitHub/bhdirectory.github.io/asset/bed-register/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB774310-8342-4E84-B19C-E99D114E97E5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27900" windowHeight="15870" xr2:uid="{3F063D37-A9A2-480C-83E7-D453F99AF1D5}"/>
+    <workbookView xWindow="2700" yWindow="460" windowWidth="19080" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>Room 15</t>
   </si>
@@ -240,9 +245,6 @@
     <t>Room 39</t>
   </si>
   <si>
-    <t>Devevte</t>
-  </si>
-  <si>
     <t>Room 42</t>
   </si>
   <si>
@@ -273,9 +275,6 @@
     <t>140818048</t>
   </si>
   <si>
-    <t>152211V</t>
-  </si>
-  <si>
     <t>xxxx</t>
   </si>
   <si>
@@ -301,12 +300,15 @@
   </si>
   <si>
     <t>14109002716</t>
+  </si>
+  <si>
+    <t>33968</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -316,12 +318,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -334,16 +342,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -351,7 +359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -366,26 +374,25 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -694,53 +701,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{334CD944-FC43-4878-886F-F55A9166DC66}">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D60"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3">
         <v>6001</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5">
-        <v>12255</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>6002</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>10121342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>6003</v>
       </c>
@@ -754,7 +761,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>6004</v>
       </c>
@@ -768,583 +775,590 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>6005</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D5" s="5">
+        <v>88361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>6006</v>
+        <v>6007</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>6008</v>
+        <v>6009</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>6010</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>6011</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>6012</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>6013</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>6014</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>6015</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6016</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>6017</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>6014</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>6015</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>6016</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>6017</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>6018</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>6019</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="B18" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>12255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>6020</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>6021</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>6022</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B21" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>6023</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>6024</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>6026</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>6023</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>6024</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>6025</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>6026</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="5">
         <v>16342</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>6027</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>6028</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>6028</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>6029</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>6029</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>6030</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>6030</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="D29" s="5">
         <v>15051209</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>6031</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="5">
-        <v>10121342</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9">
+        <v>6032</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>6033</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D32" s="5">
         <v>88338</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>6034</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D33" s="5">
         <v>87844</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>6035</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D34" s="5">
         <v>87802</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>6038</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="4" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>6036</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="5">
-        <v>88361</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>6039</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="D35" s="5">
+        <v>88345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>6037</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>6040</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="B37" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="5"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B42" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
-        <v>49</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="B44" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="5">
-        <v>87817</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D49" s="5">
+        <v>87817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
@@ -1354,7 +1368,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
@@ -1364,91 +1378,61 @@
         <v>86830</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
+      <c r="B53" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C53" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D53" s="5">
+        <v>344492</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="5">
-        <v>344492</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D58" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="5">
-        <v>88345</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="5">
-        <v>17411</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D61">
-    <sortCondition ref="A10"/>
+  <sortState ref="A2:D67">
+    <sortCondition ref="A24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>

--- a/asset/bed-register/bed-register.xlsx
+++ b/asset/bed-register/bed-register.xlsx
@@ -705,10 +705,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1224,45 +1224,41 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="6">
+        <v>6038</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="6">
+        <v>6039</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>6040</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B39" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D39" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="4"/>
-      <c r="D39" s="5"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5"/>
@@ -1272,7 +1268,7 @@
         <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -1282,50 +1278,54 @@
         <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="5"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="4" t="s">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C46" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5"/>
@@ -1333,100 +1333,116 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="5">
-        <v>87817</v>
-      </c>
+      <c r="B49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="D51" s="5">
+        <v>87817</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="5">
-        <v>86830</v>
+        <v>1</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="B53" s="4"/>
       <c r="C53" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="5">
-        <v>344492</v>
+        <v>1</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>71</v>
+        <v>19</v>
+      </c>
+      <c r="D54" s="5">
+        <v>86830</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
+      <c r="B55" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C55" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
+      </c>
+      <c r="D55" s="5">
+        <v>344492</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D57" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="5" t="s">
         <v>37</v>
       </c>
     </row>

--- a/asset/bed-register/bed-register.xlsx
+++ b/asset/bed-register/bed-register.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="460" windowWidth="19080" windowHeight="15880"/>
+    <workbookView xWindow="1240" yWindow="480" windowWidth="10600" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="98">
   <si>
     <t>Room 15</t>
   </si>
@@ -303,6 +303,33 @@
   </si>
   <si>
     <t>33968</t>
+  </si>
+  <si>
+    <t>10121342</t>
+  </si>
+  <si>
+    <t>88361</t>
+  </si>
+  <si>
+    <t>12255</t>
+  </si>
+  <si>
+    <t>16342</t>
+  </si>
+  <si>
+    <t>15051209</t>
+  </si>
+  <si>
+    <t>88338</t>
+  </si>
+  <si>
+    <t>87844</t>
+  </si>
+  <si>
+    <t>87802</t>
+  </si>
+  <si>
+    <t>88345</t>
   </si>
 </sst>
 </file>
@@ -705,10 +732,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,8 +770,8 @@
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5">
-        <v>10121342</v>
+      <c r="D2" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -785,490 +812,488 @@
       <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
-        <v>88361</v>
+      <c r="D5" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>6007</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>32</v>
-      </c>
+      <c r="A6" s="6">
+        <v>6006</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
+        <v>6008</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>6009</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
         <v>6010</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B10" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D10" s="11" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>6011</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>6012</v>
+        <v>6011</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>6014</v>
+        <v>6013</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>6015</v>
+        <v>6014</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
+        <v>6016</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>6017</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="6">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
         <v>6018</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B18" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>6019</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5">
-        <v>12255</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>6020</v>
+        <v>6019</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>6022</v>
+        <v>6021</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>6024</v>
+        <v>6023</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>6024</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="6">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
         <v>6025</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D25" s="8" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>6026</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="5">
-        <v>16342</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>6027</v>
+        <v>6026</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>6028</v>
+        <v>6027</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>3</v>
+        <v>85</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>6029</v>
+        <v>6028</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>6030</v>
+        <v>6029</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="5">
-        <v>15051209</v>
+      <c r="D29" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
+        <v>6030</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>6031</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9">
         <v>6032</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D32" s="5" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>6033</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="5">
-        <v>88338</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>6034</v>
+        <v>6033</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="5">
-        <v>87844</v>
+      <c r="D33" s="5" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>6035</v>
+        <v>6034</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="5">
-        <v>87802</v>
+      <c r="D34" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>6036</v>
+        <v>6035</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="5">
-        <v>88345</v>
+      <c r="D35" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="6">
-        <v>6037</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>76</v>
+      <c r="A36" s="3">
+        <v>6036</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6">
-        <v>6038</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
+        <v>6037</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6">
-        <v>6039</v>
+        <v>6038</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="6">
+        <v>6039</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>6040</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B40" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D40" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="5"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5"/>
@@ -1278,7 +1303,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5"/>
@@ -1288,7 +1313,7 @@
         <v>17</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>35</v>
+        <v>77</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5"/>
@@ -1298,42 +1323,44 @@
         <v>17</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B46" s="4" t="s">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C47" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="5"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5"/>
@@ -1341,7 +1368,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5"/>
@@ -1349,29 +1376,27 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="5"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="5">
-        <v>87817</v>
-      </c>
+      <c r="B51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="5"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>48</v>
+        <v>19</v>
+      </c>
+      <c r="D52" s="5">
+        <v>87817</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,49 +1406,49 @@
         <v>1</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="5">
-        <v>86830</v>
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="4" t="s">
-        <v>83</v>
-      </c>
+      <c r="B55" s="4"/>
       <c r="C55" s="4" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D55" s="5">
-        <v>344492</v>
+        <v>86830</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>83</v>
+      </c>
       <c r="C56" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="D56" s="5">
+        <v>344492</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -1433,16 +1458,26 @@
         <v>3</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" s="5" t="s">
         <v>37</v>
       </c>
     </row>
